--- a/DGRLSV/bin/Debug/MdiChill.xlsx
+++ b/DGRLSV/bin/Debug/MdiChill.xlsx
@@ -68,40 +68,43 @@
     <t xml:space="preserve">1 </t>
   </si>
   <si>
-    <t xml:space="preserve">1510173 </t>
+    <t xml:space="preserve">1512952 </t>
   </si>
   <si>
     <t>Công nghệ thông tin</t>
   </si>
   <si>
-    <t>Trung bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1512961 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1610090 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710185 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710261 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812771 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710291 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710194 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710156 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1610145 </t>
+    <t>Xuất sắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510191 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1613210 </t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1512868 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1812828 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1812832 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1812850 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1812751 </t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c t="s" r="F2" s="1">
         <v>10</v>
@@ -492,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c t="s" r="F3" s="1">
         <v>10</v>
@@ -512,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c t="s" r="F4" s="1">
         <v>10</v>
@@ -532,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="F5" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -546,16 +549,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c t="s" r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>87</v>
+      </c>
+      <c t="s" r="F6" s="1">
         <v>14</v>
-      </c>
-      <c t="s" r="D6" s="1">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>64</v>
-      </c>
-      <c t="s" r="F6" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +569,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="D7" s="1">
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c t="s" r="F7" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -586,16 +589,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C8" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="D8" s="1">
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c t="s" r="F8" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +609,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C9" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c t="s" r="D9" s="1">
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c t="s" r="F9" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -626,16 +629,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c t="s" r="F10" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -646,16 +649,16 @@
         <v>7</v>
       </c>
       <c t="s" r="C11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="D11" s="1">
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c t="s" r="F11" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DGRLSV/bin/Debug/MdiChill.xlsx
+++ b/DGRLSV/bin/Debug/MdiChill.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet!$A$1:$E$6</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -18,15 +18,7 @@
       <rPr>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Năm học</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Học kỳ</t>
+      <t>STT</t>
     </r>
   </si>
   <si>
@@ -62,49 +54,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2019      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1512952 </t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin</t>
+    <t xml:space="preserve">1511763 </t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
   </si>
   <si>
     <t>Xuất sắc</t>
   </si>
   <si>
-    <t xml:space="preserve">1510198 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510191 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1613210 </t>
+    <t xml:space="preserve">1511764 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1511768 </t>
   </si>
   <si>
     <t>Tốt</t>
   </si>
   <si>
-    <t xml:space="preserve">1512868 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812828 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812832 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812850 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812751 </t>
+    <t xml:space="preserve">1513666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1712229 </t>
   </si>
 </sst>
 </file>
@@ -148,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,239 +407,120 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="22.43" customWidth="1" style="1"/>
-    <col min="2" max="2" width="22.43" customWidth="1" style="1"/>
-    <col min="3" max="3" width="22.43" customWidth="1" style="1"/>
-    <col min="4" max="4" width="26" customWidth="1" style="1"/>
-    <col min="5" max="5" width="22.43" customWidth="1" style="1"/>
-    <col min="6" max="6" width="22.71" customWidth="1" style="1"/>
+    <col min="1" max="1" width="26.71" customWidth="1" style="1"/>
+    <col min="2" max="2" width="26.71" customWidth="1" style="2"/>
+    <col min="3" max="3" width="31" customWidth="1" style="2"/>
+    <col min="4" max="4" width="26.71" customWidth="1" style="2"/>
+    <col min="5" max="5" width="27.29" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" r="A1" s="1">
+      <c t="s" r="A1" s="2">
         <v>0</v>
       </c>
-      <c t="s" r="B1" s="1">
+      <c t="s" r="B1" s="2">
         <v>1</v>
       </c>
-      <c t="s" r="C1" s="1">
+      <c t="s" r="C1" s="2">
         <v>2</v>
       </c>
-      <c t="s" r="D1" s="1">
+      <c t="s" r="D1" s="2">
         <v>3</v>
       </c>
-      <c t="s" r="E1" s="1">
+      <c t="s" r="E1" s="2">
         <v>4</v>
-      </c>
-      <c t="s" r="F1" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" r="A2" s="1">
+      <c r="A2" s="1">
+        <v>682</v>
+      </c>
+      <c t="s" r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c t="s" r="C2" s="2">
         <v>6</v>
       </c>
-      <c t="s" r="B2" s="1">
+      <c r="D2" s="2">
+        <v>90</v>
+      </c>
+      <c t="s" r="E2" s="2">
         <v>7</v>
-      </c>
-      <c t="s" r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c t="s" r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94</v>
-      </c>
-      <c t="s" r="F2" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" r="A3" s="1">
+      <c r="A3" s="1">
+        <v>683</v>
+      </c>
+      <c t="s" r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c t="s" r="C3" s="2">
         <v>6</v>
       </c>
-      <c t="s" r="B3" s="1">
+      <c r="D3" s="2">
+        <v>90</v>
+      </c>
+      <c t="s" r="E3" s="2">
         <v>7</v>
-      </c>
-      <c t="s" r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c t="s" r="D3" s="1">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>92</v>
-      </c>
-      <c t="s" r="F3" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c t="s" r="A4" s="1">
+      <c r="A4" s="1">
+        <v>674</v>
+      </c>
+      <c t="s" r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c t="s" r="C4" s="2">
         <v>6</v>
       </c>
-      <c t="s" r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c t="s" r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>90</v>
-      </c>
-      <c t="s" r="F4" s="1">
+      <c r="D4" s="2">
+        <v>88</v>
+      </c>
+      <c t="s" r="E4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c t="s" r="A5" s="1">
+      <c r="A5" s="1">
+        <v>677</v>
+      </c>
+      <c t="s" r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c t="s" r="C5" s="2">
         <v>6</v>
       </c>
-      <c t="s" r="B5" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c t="s" r="D5" s="1">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>88</v>
-      </c>
-      <c t="s" r="F5" s="1">
-        <v>14</v>
+      <c r="D5" s="2">
+        <v>86</v>
+      </c>
+      <c t="s" r="E5" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" r="A6" s="1">
+      <c r="A6" s="1">
+        <v>679</v>
+      </c>
+      <c t="s" r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c t="s" r="C6" s="2">
         <v>6</v>
       </c>
-      <c t="s" r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c t="s" r="D6" s="1">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>87</v>
-      </c>
-      <c t="s" r="F6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c t="s" r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>87</v>
-      </c>
-      <c t="s" r="F7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C8" s="1">
-        <v>17</v>
-      </c>
-      <c t="s" r="D8" s="1">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>87</v>
-      </c>
-      <c t="s" r="F8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C9" s="1">
-        <v>18</v>
-      </c>
-      <c t="s" r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D6" s="2">
         <v>86</v>
       </c>
-      <c t="s" r="F9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c t="s" r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>86</v>
-      </c>
-      <c t="s" r="F10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c t="s" r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c t="s" r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c t="s" r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>86</v>
-      </c>
-      <c t="s" r="F11" s="1">
-        <v>14</v>
+      <c t="s" r="E6" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F11"/>
+  <autoFilter ref="A1:E6"/>
   <pageSetup fitToWidth="0" fitToHeight="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>